--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_Vietcom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -304,9 +304,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -689,27 +688,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -727,30 +750,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:F22"/>
+    <sheetView showZeros="0" topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1094,43 +1093,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1175,58 +1174,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1251,23 +1250,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,7 +1320,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1378,7 +1377,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1431,7 +1430,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1488,7 +1487,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1543,7 +1542,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1598,7 +1597,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1649,7 +1648,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1710,7 +1709,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1769,7 +1768,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1824,7 +1823,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1879,7 +1878,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3136,13 +3135,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3154,6 +3146,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3197,43 +3196,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3278,58 +3277,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3354,23 +3353,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3402,7 +3401,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3433,7 +3432,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3462,7 +3461,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3491,7 +3490,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3520,7 +3519,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3549,7 +3548,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3578,7 +3577,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3609,7 +3608,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3638,7 +3637,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3667,7 +3666,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3696,7 +3695,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4927,13 +4926,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4945,6 +4937,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4955,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4988,43 +4987,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5069,58 +5068,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -5145,49 +5144,77 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="77"/>
       <c r="P5" s="83"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="38">
+        <v>868183035853055</v>
+      </c>
       <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="G6" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5199,26 +5226,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>860157040235977</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="54" t="s">
+        <v>72</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="K7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5228,26 +5281,50 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="54"/>
+      <c r="B8" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>867857039906792</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54" t="s">
+        <v>72</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>86</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5257,26 +5334,54 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="48"/>
+      <c r="B9" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183033803938</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="54" t="s">
+        <v>72</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5286,26 +5391,52 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="1"/>
+      <c r="B10" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="38">
+        <v>867857039896928</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>85</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5315,26 +5446,52 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
+      <c r="B11" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="38">
+        <v>868183038035973</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="48" t="s">
+        <v>72</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="K11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5344,26 +5501,48 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="38">
+        <v>867857039894410</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
+      <c r="J12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5375,26 +5554,56 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="39"/>
+      <c r="B13" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="38">
+        <v>868183033830964</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>72</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="9"/>
+      <c r="O13" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5404,26 +5613,56 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="B14" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="38">
+        <v>868183033864161</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5433,26 +5672,52 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="38">
+        <v>867857039909523</v>
+      </c>
       <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="I15" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="37"/>
+      <c r="O15" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5462,26 +5727,52 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="38">
+        <v>868183038033184</v>
+      </c>
       <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="G16" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="M16" s="39" t="s">
+        <v>85</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
+      <c r="O16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5491,23 +5782,49 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="38">
+        <v>868183038489097</v>
+      </c>
       <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="39"/>
+      <c r="I17" s="54" t="s">
+        <v>72</v>
+      </c>
       <c r="J17" s="39"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="39"/>
+      <c r="K17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="37"/>
+      <c r="O17" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="41"/>
@@ -5600,7 +5917,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5632,7 +5949,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -5664,7 +5981,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5877,7 +6194,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -5941,7 +6258,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -5973,7 +6290,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -6069,7 +6386,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6101,7 +6418,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -6133,7 +6450,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6251,7 +6568,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -6712,13 +7029,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6730,6 +7040,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
